--- a/rosters/2023/LA Clippers/LA Clippers.xlsx
+++ b/rosters/2023/LA Clippers/LA Clippers.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aweso\OneDrive\Desktop\NBA PREDICTOR\rosters\2023\LA Clippers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4679F49E-B2C0-47FA-98F6-D69A4F7A6869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="17280" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -271,9 +277,6 @@
     <t>https://www.basketball-reference.com/players/z/zubaciv01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/morrima02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/batumni01.html</t>
   </si>
   <si>
@@ -311,13 +314,16 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/p/prestja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/morrima03.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +399,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -439,7 +453,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,9 +485,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -505,6 +537,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -680,14 +730,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -754,7 +806,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -786,7 +838,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -818,10 +870,10 @@
         <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -850,10 +902,10 @@
         <v>63</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -885,10 +937,10 @@
         <v>73</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -920,10 +972,10 @@
         <v>74</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -955,10 +1007,10 @@
         <v>75</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -990,10 +1042,10 @@
         <v>76</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1025,10 +1077,10 @@
         <v>74</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1060,10 +1112,10 @@
         <v>77</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1095,10 +1147,10 @@
         <v>78</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1130,10 +1182,10 @@
         <v>79</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1165,10 +1217,10 @@
         <v>80</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1200,10 +1252,10 @@
         <v>75</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1235,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1270,27 +1322,27 @@
         <v>82</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="K13" r:id="rId12"/>
-    <hyperlink ref="K14" r:id="rId13"/>
-    <hyperlink ref="K15" r:id="rId14"/>
-    <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/LA Clippers/LA Clippers.xlsx
+++ b/rosters/2023/LA Clippers/LA Clippers.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aweso\OneDrive\Desktop\NBA PREDICTOR\rosters\2023\LA Clippers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4679F49E-B2C0-47FA-98F6-D69A4F7A6869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="17280" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
   <si>
     <t>No.</t>
   </si>
@@ -58,36 +52,27 @@
     <t>Ivica Zubac</t>
   </si>
   <si>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
     <t>Marcus Morris</t>
   </si>
   <si>
-    <t>Nicolas Batum</t>
-  </si>
-  <si>
-    <t>Reggie Jackson</t>
-  </si>
-  <si>
     <t>Norman Powell</t>
   </si>
   <si>
-    <t>John Wall</t>
+    <t>Paul George</t>
   </si>
   <si>
     <t>Amir Coffey</t>
   </si>
   <si>
+    <t>Robert Covington</t>
+  </si>
+  <si>
     <t>Moses Brown (TW)</t>
   </si>
   <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Luke Kennard</t>
-  </si>
-  <si>
-    <t>Robert Covington</t>
-  </si>
-  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
@@ -100,6 +85,15 @@
     <t>Jason Preston</t>
   </si>
   <si>
+    <t>Eric Gordon</t>
+  </si>
+  <si>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
+    <t>Bones Hyland</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
@@ -109,12 +103,12 @@
     <t>PF</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -148,36 +139,27 @@
     <t>March 18, 1997</t>
   </si>
   <si>
+    <t>December 14, 1988</t>
+  </si>
+  <si>
     <t>September 2, 1989</t>
   </si>
   <si>
-    <t>December 14, 1988</t>
-  </si>
-  <si>
-    <t>April 16, 1990</t>
-  </si>
-  <si>
     <t>May 25, 1993</t>
   </si>
   <si>
-    <t>September 6, 1990</t>
+    <t>May 2, 1990</t>
   </si>
   <si>
     <t>June 17, 1997</t>
   </si>
   <si>
+    <t>December 14, 1990</t>
+  </si>
+  <si>
     <t>October 13, 1999</t>
   </si>
   <si>
-    <t>May 2, 1990</t>
-  </si>
-  <si>
-    <t>June 24, 1996</t>
-  </si>
-  <si>
-    <t>December 14, 1990</t>
-  </si>
-  <si>
     <t>June 29, 1991</t>
   </si>
   <si>
@@ -190,6 +172,15 @@
     <t>August 10, 1999</t>
   </si>
   <si>
+    <t>December 25, 1988</t>
+  </si>
+  <si>
+    <t>March 5, 1990</t>
+  </si>
+  <si>
+    <t>September 14, 2000</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
@@ -199,36 +190,30 @@
     <t>fr</t>
   </si>
   <si>
-    <t>it</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -241,34 +226,37 @@
     <t>Kansas</t>
   </si>
   <si>
-    <t>Boston College</t>
-  </si>
-  <si>
     <t>UCLA</t>
   </si>
   <si>
+    <t>Fresno State</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Tennessee State</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Fresno State</t>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Ohio University</t>
+  </si>
+  <si>
+    <t>Indiana</t>
   </si>
   <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>Tennessee State</t>
-  </si>
-  <si>
-    <t>San Diego State</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Ohio University</t>
+    <t>VCU</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/mannte01.html</t>
@@ -280,30 +268,24 @@
     <t>https://www.basketball-reference.com/players/b/batumni01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/jacksre01.html</t>
+    <t>https://www.basketball-reference.com/players/m/morrima02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/p/powelno01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/walljo01.html</t>
+    <t>https://www.basketball-reference.com/players/g/georgpa01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/coffeam01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/c/covinro01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/brownmo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/georgpa01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/k/kennalu01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/c/covinro01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/l/leonaka01.html</t>
   </si>
   <si>
@@ -316,14 +298,20 @@
     <t>https://www.basketball-reference.com/players/p/prestja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/morrima03.html</t>
+    <t>https://www.basketball-reference.com/players/g/gordoer01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/p/plumlma01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/hylanbo01.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,14 +387,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -453,7 +433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,27 +465,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,24 +499,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,16 +674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,7 +713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -791,22 +733,22 @@
         <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -826,24 +768,24 @@
         <v>240</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -855,30 +797,27 @@
         <v>33</v>
       </c>
       <c r="F4">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -890,62 +829,65 @@
         <v>33</v>
       </c>
       <c r="F5">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
         <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -954,39 +896,39 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
@@ -995,57 +937,57 @@
         <v>210</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1059,68 +1001,68 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10">
         <v>245</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1129,33 +1071,33 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F12">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1164,33 +1106,33 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1199,34 +1141,31 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
@@ -1234,115 +1173,109 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>25</v>
-      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F17">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
         <v>55</v>
       </c>
-      <c r="H17" t="s">
-        <v>56</v>
-      </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="K14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="K8" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="K10" r:id="rId9"/>
+    <hyperlink ref="K11" r:id="rId10"/>
+    <hyperlink ref="K12" r:id="rId11"/>
+    <hyperlink ref="K13" r:id="rId12"/>
+    <hyperlink ref="K14" r:id="rId13"/>
+    <hyperlink ref="K15" r:id="rId14"/>
+    <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/LA Clippers/LA Clippers.xlsx
+++ b/rosters/2023/LA Clippers/LA Clippers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
   <si>
     <t>No.</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Robert Covington</t>
   </si>
   <si>
-    <t>Moses Brown (TW)</t>
-  </si>
-  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
@@ -88,10 +85,13 @@
     <t>Eric Gordon</t>
   </si>
   <si>
+    <t>Bones Hyland</t>
+  </si>
+  <si>
     <t>Mason Plumlee</t>
   </si>
   <si>
-    <t>Bones Hyland</t>
+    <t>Nate Darling (TW)</t>
   </si>
   <si>
     <t>SG</t>
@@ -124,15 +124,15 @@
     <t>6-7</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
     <t>6-11</t>
   </si>
   <si>
     <t>6-4</t>
   </si>
   <si>
+    <t>6-6</t>
+  </si>
+  <si>
     <t>October 18, 1996</t>
   </si>
   <si>
@@ -157,9 +157,6 @@
     <t>December 14, 1990</t>
   </si>
   <si>
-    <t>October 13, 1999</t>
-  </si>
-  <si>
     <t>June 29, 1991</t>
   </si>
   <si>
@@ -175,10 +172,13 @@
     <t>December 25, 1988</t>
   </si>
   <si>
+    <t>September 14, 2000</t>
+  </si>
+  <si>
     <t>March 5, 1990</t>
   </si>
   <si>
-    <t>September 14, 2000</t>
+    <t>August 30, 1998</t>
   </si>
   <si>
     <t>us</t>
@@ -190,6 +190,9 @@
     <t>fr</t>
   </si>
   <si>
+    <t>ca</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -253,10 +256,13 @@
     <t>Indiana</t>
   </si>
   <si>
+    <t>VCU</t>
+  </si>
+  <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>VCU</t>
+    <t>UAB, University of Delaware</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/mannte01.html</t>
@@ -283,9 +289,6 @@
     <t>https://www.basketball-reference.com/players/c/covinro01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/brownmo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/l/leonaka01.html</t>
   </si>
   <si>
@@ -301,10 +304,13 @@
     <t>https://www.basketball-reference.com/players/g/gordoer01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/hylanbo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/plumlma01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/hylanbo01.html</t>
+    <t>https://www.basketball-reference.com/players/d/darlina01.html</t>
   </si>
 </sst>
 </file>
@@ -739,13 +745,13 @@
         <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -774,10 +780,10 @@
         <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -806,10 +812,10 @@
         <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -838,13 +844,13 @@
         <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -873,13 +879,13 @@
         <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -908,13 +914,13 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -943,13 +949,13 @@
         <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -978,13 +984,13 @@
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -992,19 +998,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -1013,13 +1019,13 @@
         <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1027,19 +1033,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
       </c>
       <c r="F11">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
@@ -1048,13 +1054,13 @@
         <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1062,34 +1068,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1097,34 +1103,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
       </c>
       <c r="F13">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1132,19 +1138,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -1153,30 +1159,33 @@
         <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
       </c>
       <c r="F15">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
@@ -1185,19 +1194,22 @@
         <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>44</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -1205,7 +1217,7 @@
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16">
         <v>254</v>
@@ -1217,13 +1229,13 @@
         <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1234,28 +1246,28 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F17">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="G17" t="s">
         <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/rosters/2023/LA Clippers/LA Clippers.xlsx
+++ b/rosters/2023/LA Clippers/LA Clippers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
   <si>
     <t>No.</t>
   </si>
@@ -49,12 +49,12 @@
     <t>Terance Mann</t>
   </si>
   <si>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
     <t>Ivica Zubac</t>
   </si>
   <si>
-    <t>Nicolas Batum</t>
-  </si>
-  <si>
     <t>Marcus Morris</t>
   </si>
   <si>
@@ -67,12 +67,12 @@
     <t>Amir Coffey</t>
   </si>
   <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
     <t>Robert Covington</t>
   </si>
   <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
     <t>Brandon Boston Jr.</t>
   </si>
   <si>
@@ -85,24 +85,27 @@
     <t>Eric Gordon</t>
   </si>
   <si>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
     <t>Bones Hyland</t>
   </si>
   <si>
-    <t>Mason Plumlee</t>
-  </si>
-  <si>
-    <t>Nate Darling (TW)</t>
+    <t>Xavier Moon (TW)</t>
   </si>
   <si>
     <t>SG</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -112,12 +115,12 @@
     <t>6-5</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>7-0</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -130,18 +133,18 @@
     <t>6-4</t>
   </si>
   <si>
-    <t>6-6</t>
+    <t>6-2</t>
   </si>
   <si>
     <t>October 18, 1996</t>
   </si>
   <si>
+    <t>December 14, 1988</t>
+  </si>
+  <si>
     <t>March 18, 1997</t>
   </si>
   <si>
-    <t>December 14, 1988</t>
-  </si>
-  <si>
     <t>September 2, 1989</t>
   </si>
   <si>
@@ -154,12 +157,12 @@
     <t>June 17, 1997</t>
   </si>
   <si>
+    <t>June 29, 1991</t>
+  </si>
+  <si>
     <t>December 14, 1990</t>
   </si>
   <si>
-    <t>June 29, 1991</t>
-  </si>
-  <si>
     <t>November 28, 2001</t>
   </si>
   <si>
@@ -172,36 +175,36 @@
     <t>December 25, 1988</t>
   </si>
   <si>
+    <t>March 5, 1990</t>
+  </si>
+  <si>
+    <t>November 12, 1988</t>
+  </si>
+  <si>
     <t>September 14, 2000</t>
   </si>
   <si>
-    <t>March 5, 1990</t>
-  </si>
-  <si>
-    <t>August 30, 1998</t>
+    <t>January 2, 1995</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
+    <t>fr</t>
+  </si>
+  <si>
     <t>ba</t>
   </si>
   <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -211,12 +214,12 @@
     <t>12</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -238,12 +241,12 @@
     <t>Minnesota</t>
   </si>
   <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
     <t>Tennessee State</t>
   </si>
   <si>
-    <t>San Diego State</t>
-  </si>
-  <si>
     <t>Kentucky</t>
   </si>
   <si>
@@ -256,24 +259,24 @@
     <t>Indiana</t>
   </si>
   <si>
+    <t>Duke</t>
+  </si>
+  <si>
     <t>VCU</t>
   </si>
   <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>UAB, University of Delaware</t>
+    <t>Northwest Florida State College, Morehead State University</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/mannte01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/batumni01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/z/zubaciv01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/batumni01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/morrima02.html</t>
   </si>
   <si>
@@ -286,12 +289,12 @@
     <t>https://www.basketball-reference.com/players/c/coffeam01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/l/leonaka01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/covinro01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/l/leonaka01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/bostobr01.html</t>
   </si>
   <si>
@@ -304,13 +307,16 @@
     <t>https://www.basketball-reference.com/players/g/gordoer01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/p/plumlma01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/westbru01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/hylanbo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/p/plumlma01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/d/darlina01.html</t>
+    <t>https://www.basketball-reference.com/players/m/moonxa01.html</t>
   </si>
 </sst>
 </file>
@@ -681,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,28 +736,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -759,31 +765,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -791,31 +797,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -838,19 +844,19 @@
         <v>218</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -864,28 +870,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -899,7 +905,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -908,19 +914,19 @@
         <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -934,28 +940,28 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>210</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -963,34 +969,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -998,34 +1004,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1039,28 +1045,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <v>185</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1077,25 +1083,25 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>210</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1109,28 +1115,28 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>187</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1144,28 +1150,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>215</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
         <v>61</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1173,34 +1179,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
         <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1208,66 +1214,101 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J17" t="s">
         <v>82</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1288,6 +1329,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/LA Clippers/LA Clippers.xlsx
+++ b/rosters/2023/LA Clippers/LA Clippers.xlsx
@@ -58,12 +58,12 @@
     <t>Marcus Morris</t>
   </si>
   <si>
+    <t>Paul George</t>
+  </si>
+  <si>
     <t>Norman Powell</t>
   </si>
   <si>
-    <t>Paul George</t>
-  </si>
-  <si>
     <t>Amir Coffey</t>
   </si>
   <si>
@@ -79,15 +79,15 @@
     <t>Moussa Diabaté (TW)</t>
   </si>
   <si>
+    <t>Eric Gordon</t>
+  </si>
+  <si>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
     <t>Jason Preston</t>
   </si>
   <si>
-    <t>Eric Gordon</t>
-  </si>
-  <si>
-    <t>Mason Plumlee</t>
-  </si>
-  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>September 2, 1989</t>
   </si>
   <si>
+    <t>May 2, 1990</t>
+  </si>
+  <si>
     <t>May 25, 1993</t>
   </si>
   <si>
-    <t>May 2, 1990</t>
-  </si>
-  <si>
     <t>June 17, 1997</t>
   </si>
   <si>
@@ -169,15 +169,15 @@
     <t>January 21, 2002</t>
   </si>
   <si>
+    <t>December 25, 1988</t>
+  </si>
+  <si>
+    <t>March 5, 1990</t>
+  </si>
+  <si>
     <t>August 10, 1999</t>
   </si>
   <si>
-    <t>December 25, 1988</t>
-  </si>
-  <si>
-    <t>March 5, 1990</t>
-  </si>
-  <si>
     <t>November 12, 1988</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>11</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -232,12 +232,12 @@
     <t>Kansas</t>
   </si>
   <si>
+    <t>Fresno State</t>
+  </si>
+  <si>
     <t>UCLA</t>
   </si>
   <si>
-    <t>Fresno State</t>
-  </si>
-  <si>
     <t>Minnesota</t>
   </si>
   <si>
@@ -253,15 +253,15 @@
     <t>Michigan</t>
   </si>
   <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
     <t>Ohio University</t>
   </si>
   <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
     <t>VCU</t>
   </si>
   <si>
@@ -280,12 +280,12 @@
     <t>https://www.basketball-reference.com/players/m/morrima02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/g/georgpa01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/powelno01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/georgpa01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/coffeam01.html</t>
   </si>
   <si>
@@ -301,13 +301,13 @@
     <t>https://www.basketball-reference.com/players/d/diabamo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/g/gordoer01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/p/plumlma01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/prestja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/g/gordoer01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/p/plumlma01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/westbru01.html</t>
@@ -864,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -873,10 +873,10 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -908,10 +908,10 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1109,19 +1109,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="G13" t="s">
         <v>51</v>
@@ -1130,7 +1130,7 @@
         <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -1144,19 +1144,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
@@ -1165,7 +1165,7 @@
         <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
         <v>80</v>
@@ -1179,19 +1179,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="G15" t="s">
         <v>53</v>
@@ -1200,7 +1200,7 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J15" t="s">
         <v>81</v>
@@ -1238,7 +1238,7 @@
         <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>98</v>

--- a/rosters/2023/LA Clippers/LA Clippers.xlsx
+++ b/rosters/2023/LA Clippers/LA Clippers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
   <si>
     <t>No.</t>
   </si>
@@ -46,6 +46,57 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0, 1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Terance Mann</t>
   </si>
   <si>
@@ -58,42 +109,42 @@
     <t>Marcus Morris</t>
   </si>
   <si>
+    <t>Norman Powell</t>
+  </si>
+  <si>
     <t>Paul George</t>
   </si>
   <si>
-    <t>Norman Powell</t>
+    <t>Kawhi Leonard</t>
   </si>
   <si>
     <t>Amir Coffey</t>
   </si>
   <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
     <t>Robert Covington</t>
   </si>
   <si>
+    <t>Mason Plumlee</t>
+  </si>
+  <si>
+    <t>Eric Gordon</t>
+  </si>
+  <si>
     <t>Brandon Boston Jr.</t>
   </si>
   <si>
     <t>Moussa Diabaté (TW)</t>
   </si>
   <si>
-    <t>Eric Gordon</t>
-  </si>
-  <si>
-    <t>Mason Plumlee</t>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Bones Hyland</t>
   </si>
   <si>
     <t>Jason Preston</t>
   </si>
   <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Bones Hyland</t>
-  </si>
-  <si>
     <t>Xavier Moon (TW)</t>
   </si>
   <si>
@@ -148,42 +199,42 @@
     <t>September 2, 1989</t>
   </si>
   <si>
+    <t>May 25, 1993</t>
+  </si>
+  <si>
     <t>May 2, 1990</t>
   </si>
   <si>
-    <t>May 25, 1993</t>
+    <t>June 29, 1991</t>
   </si>
   <si>
     <t>June 17, 1997</t>
   </si>
   <si>
-    <t>June 29, 1991</t>
-  </si>
-  <si>
     <t>December 14, 1990</t>
   </si>
   <si>
+    <t>March 5, 1990</t>
+  </si>
+  <si>
+    <t>December 25, 1988</t>
+  </si>
+  <si>
     <t>November 28, 2001</t>
   </si>
   <si>
     <t>January 21, 2002</t>
   </si>
   <si>
-    <t>December 25, 1988</t>
-  </si>
-  <si>
-    <t>March 5, 1990</t>
+    <t>November 12, 1988</t>
+  </si>
+  <si>
+    <t>September 14, 2000</t>
   </si>
   <si>
     <t>August 10, 1999</t>
   </si>
   <si>
-    <t>November 12, 1988</t>
-  </si>
-  <si>
-    <t>September 14, 2000</t>
-  </si>
-  <si>
     <t>January 2, 1995</t>
   </si>
   <si>
@@ -199,9 +250,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -211,12 +259,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -232,39 +274,39 @@
     <t>Kansas</t>
   </si>
   <si>
+    <t>UCLA</t>
+  </si>
+  <si>
     <t>Fresno State</t>
   </si>
   <si>
-    <t>UCLA</t>
+    <t>San Diego State</t>
   </si>
   <si>
     <t>Minnesota</t>
   </si>
   <si>
-    <t>San Diego State</t>
-  </si>
-  <si>
     <t>Tennessee State</t>
   </si>
   <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
     <t>Kentucky</t>
   </si>
   <si>
     <t>Michigan</t>
   </si>
   <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Duke</t>
+    <t>VCU</t>
   </si>
   <si>
     <t>Ohio University</t>
   </si>
   <si>
-    <t>VCU</t>
-  </si>
-  <si>
     <t>Northwest Florida State College, Morehead State University</t>
   </si>
   <si>
@@ -280,40 +322,40 @@
     <t>https://www.basketball-reference.com/players/m/morrima02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/p/powelno01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/g/georgpa01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/p/powelno01.html</t>
+    <t>https://www.basketball-reference.com/players/l/leonaka01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/coffeam01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/l/leonaka01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/covinro01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/p/plumlma01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/g/gordoer01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/bostobr01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/diabamo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/gordoer01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/p/plumlma01.html</t>
+    <t>https://www.basketball-reference.com/players/w/westbru01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/hylanbo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/p/prestja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/westbru01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/hylanbo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/moonxa01.html</t>
@@ -729,586 +771,589 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>14</v>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>33</v>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>230</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>40</v>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F4">
         <v>240</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>8</v>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>218</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>13</v>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F6">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>24</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F8">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F9">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>23</v>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>209</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>4</v>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F11">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>25</v>
+      <c r="B12" t="s">
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F12">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>10</v>
+      <c r="B13" t="s">
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F13">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>44</v>
+      <c r="B14" t="s">
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F14">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F15">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F16">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>5</v>
+      <c r="B17" t="s">
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F17">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
